--- a/biology/Virologie/Mireille_Dosso/Mireille_Dosso.xlsx
+++ b/biology/Virologie/Mireille_Dosso/Mireille_Dosso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mireille Dosso, née Mireille Bretin le 27 avril 1952 sur l’île d’Anjouan, est une microbiologiste et virologue ivoirienne.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 27 avril 1952 sur l’île d’Anjouan, dans l’archipel des Comores, elle obtient  le baccalauréat en 1969, à Paris. Elle rejoint ensuite la faculté de médecine d’Abidjan pour y entamer ses études universitaires qui sont sanctionnées par un doctorat d’Etat en 1980. Entre-temps, elle se marie à Adama Dosso, pilote de l’armée[1]. Une bourse lui est  accordée pour prolonger ses études  à Marseille en 1981, puis à Montpellier et à Paris dans les années 1980, en bactériologie, en microbiologie, en immunologie générale et microbienne et son 2ème doctorat d’État mais cette fois en biologie humaine à la faculté de médecine de Montpellier[1]. Elle revient en Côte d’Ivoire en 1988, est admise au concours du Conseil africain et malgache pour l'enseignement supérieur (CAMES ) et obtient le titre de maître de conférences agrégé de microbiologie. En 1994, elle accède au poste de professeur titulaire de microbiologie. En 1997, elle devient elle-même membre du Conseil africain et malgache pour l'enseignement supérieur[1]. 
-En 2004, elle est nommée directrice de l’Institut Pasteur de Côte d'Ivoire (ICPI)[2]. De dix chercheurs en 2004, l’IPCI passe à plus de 80 en 2019, sans compter les étudiants qui viennent se former tout en participant aux recherches. Mireille Dosso suit un double objectif : « Il s’agit d’atteindre une forme de souveraineté, d’autonomie dans nos recherches, mais aussi de rapatrier nos cerveaux de la diaspora tout en gardant ceux qui sont ici [..] »[3].
-Son mari, ancien pilote du président Félix Houphouet-Boigny et ancien officier supérieur de l’armée, en retraite depuis 2003 et proche de Alassane Ouattara, est assassiné en 2011, durant la crise de 2010-2011 qui suit l’élection présidentielle ivoirienne de 2010[4].
-Élevée au rang de chevalier de l’Ordre national de la République de Côte d'Ivoire en 2008, elle a reçu également différentes distinctions internationales, notamment  en novembre 2005, en Hongrie, la médaille de l'Institut Pasteur et de l'Unesco[5]. En novembre 2010, elle a reçu en France, un des prix exceptionnels décernés par l’Académie des sciences d’outre-mer. Elle est également la lauréate 2011 du  Prix de l’Union africaine et de la CEDEAO pour la Femme scientifique, encore appelé Prix scientifique Kwamé-Nkrumah de l'Union africaine pour les femmes scientifiques[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 27 avril 1952 sur l’île d’Anjouan, dans l’archipel des Comores, elle obtient  le baccalauréat en 1969, à Paris. Elle rejoint ensuite la faculté de médecine d’Abidjan pour y entamer ses études universitaires qui sont sanctionnées par un doctorat d’Etat en 1980. Entre-temps, elle se marie à Adama Dosso, pilote de l’armée. Une bourse lui est  accordée pour prolonger ses études  à Marseille en 1981, puis à Montpellier et à Paris dans les années 1980, en bactériologie, en microbiologie, en immunologie générale et microbienne et son 2ème doctorat d’État mais cette fois en biologie humaine à la faculté de médecine de Montpellier. Elle revient en Côte d’Ivoire en 1988, est admise au concours du Conseil africain et malgache pour l'enseignement supérieur (CAMES ) et obtient le titre de maître de conférences agrégé de microbiologie. En 1994, elle accède au poste de professeur titulaire de microbiologie. En 1997, elle devient elle-même membre du Conseil africain et malgache pour l'enseignement supérieur. 
+En 2004, elle est nommée directrice de l’Institut Pasteur de Côte d'Ivoire (ICPI). De dix chercheurs en 2004, l’IPCI passe à plus de 80 en 2019, sans compter les étudiants qui viennent se former tout en participant aux recherches. Mireille Dosso suit un double objectif : « Il s’agit d’atteindre une forme de souveraineté, d’autonomie dans nos recherches, mais aussi de rapatrier nos cerveaux de la diaspora tout en gardant ceux qui sont ici [..] ».
+Son mari, ancien pilote du président Félix Houphouet-Boigny et ancien officier supérieur de l’armée, en retraite depuis 2003 et proche de Alassane Ouattara, est assassiné en 2011, durant la crise de 2010-2011 qui suit l’élection présidentielle ivoirienne de 2010.
+Élevée au rang de chevalier de l’Ordre national de la République de Côte d'Ivoire en 2008, elle a reçu également différentes distinctions internationales, notamment  en novembre 2005, en Hongrie, la médaille de l'Institut Pasteur et de l'Unesco. En novembre 2010, elle a reçu en France, un des prix exceptionnels décernés par l’Académie des sciences d’outre-mer. Elle est également la lauréate 2011 du  Prix de l’Union africaine et de la CEDEAO pour la Femme scientifique, encore appelé Prix scientifique Kwamé-Nkrumah de l'Union africaine pour les femmes scientifiques.
 </t>
         </is>
       </c>
